--- a/PlanCuentas.xlsx
+++ b/PlanCuentas.xlsx
@@ -1,31 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VisualStudio\Personal\Roberto-Conjuntos\ProyectoConjuntos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Visual\Proyecto_Roberto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10203E0B-B97D-49E3-9823-2978AFB20885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95302781-3489-4382-8076-02CFCA191BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A3F66D12-4FCB-48B9-8EDE-634F8DB9845A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A3F66D12-4FCB-48B9-8EDE-634F8DB9845A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="397">
   <si>
     <t>ctacont</t>
   </si>
@@ -66,24 +80,6 @@
     <t>Caja General</t>
   </si>
   <si>
-    <t>11010102</t>
-  </si>
-  <si>
-    <t>Caja Cheques Posfechados</t>
-  </si>
-  <si>
-    <t>11010103</t>
-  </si>
-  <si>
-    <t>Sobrantes y faltantes cajas diarias cta</t>
-  </si>
-  <si>
-    <t>11010105</t>
-  </si>
-  <si>
-    <t>Caja cta varios</t>
-  </si>
-  <si>
     <t>110102</t>
   </si>
   <si>
@@ -114,12 +110,6 @@
     <t>Banco Ruminahui 8029453904</t>
   </si>
   <si>
-    <t>110103</t>
-  </si>
-  <si>
-    <t>INVERSIONES</t>
-  </si>
-  <si>
     <t>1102</t>
   </si>
   <si>
@@ -129,27 +119,12 @@
     <t>110201</t>
   </si>
   <si>
-    <t>CTAS POR COBRAR CLIENTES</t>
-  </si>
-  <si>
     <t>11020101</t>
   </si>
   <si>
     <t>Ctas.por Cobrar Clientes</t>
   </si>
   <si>
-    <t>11020102</t>
-  </si>
-  <si>
-    <t>Chesques Protestados</t>
-  </si>
-  <si>
-    <t>11020103</t>
-  </si>
-  <si>
-    <t>Cuentas por Cobrar Tarjeta de Credito</t>
-  </si>
-  <si>
     <t>110202</t>
   </si>
   <si>
@@ -798,36 +773,6 @@
     <t>410101</t>
   </si>
   <si>
-    <t>VENTAS GRAVADAS CON TARIFA 12%</t>
-  </si>
-  <si>
-    <t>41010101</t>
-  </si>
-  <si>
-    <t>Ventas Mercaderia</t>
-  </si>
-  <si>
-    <t>410102</t>
-  </si>
-  <si>
-    <t>VENTAS GRAVADAS CON TARIFA 0</t>
-  </si>
-  <si>
-    <t>4102</t>
-  </si>
-  <si>
-    <t>DESCUENTOS Y DEVOLUCIONES</t>
-  </si>
-  <si>
-    <t>410201</t>
-  </si>
-  <si>
-    <t>41020101</t>
-  </si>
-  <si>
-    <t>Descuento pronto pago</t>
-  </si>
-  <si>
     <t>4103</t>
   </si>
   <si>
@@ -1279,6 +1224,12 @@
   </si>
   <si>
     <t>Prestamo Banecuador</t>
+  </si>
+  <si>
+    <t>ALICUOTAS</t>
+  </si>
+  <si>
+    <t>CTAS POR COBRAR</t>
   </si>
 </sst>
 </file>
@@ -1314,8 +1265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1631,2402 +1581,2286 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8E9AF1-4AC8-4155-A90E-2D1A2E1E696A}">
-  <dimension ref="A1:C217"/>
+  <dimension ref="A1:C206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="54.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
+        <v>396</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B26" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="B27" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B28" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B29" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B30" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B32" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="B33" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="B34" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B35" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="B36" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B37" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="B38" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="B39" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="B40" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="B41" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="B42" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="B43" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="B44" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="B45" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="B46" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="B47" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="B48" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="B49" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="B50" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="B51" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>103</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="B54" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="B55" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="B56" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="B57" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="B58" t="s">
         <v>113</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="B59" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="B60" t="s">
         <v>117</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>118</v>
       </c>
-      <c r="C60" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="B61" t="s">
         <v>119</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="B62" t="s">
         <v>121</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>122</v>
       </c>
-      <c r="C62" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="B63" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>124</v>
       </c>
-      <c r="C63" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="B64" t="s">
         <v>125</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="B65" t="s">
         <v>127</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="B66" t="s">
         <v>129</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="B67" t="s">
         <v>131</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>132</v>
       </c>
-      <c r="C67" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="B68" t="s">
         <v>133</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="B69" t="s">
         <v>135</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>136</v>
       </c>
-      <c r="C69" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="B70" t="s">
         <v>137</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>138</v>
       </c>
-      <c r="C70" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="B71" t="s">
         <v>139</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>140</v>
       </c>
-      <c r="C71" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="B72" t="s">
         <v>141</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>142</v>
       </c>
-      <c r="C72" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="B73" t="s">
         <v>143</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>144</v>
       </c>
-      <c r="C73" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="B74" t="s">
         <v>145</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>146</v>
       </c>
-      <c r="C74" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="B75" t="s">
         <v>147</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>148</v>
       </c>
-      <c r="C75" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="B76" t="s">
         <v>149</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>150</v>
       </c>
-      <c r="C76" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="B77" t="s">
         <v>151</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>152</v>
       </c>
-      <c r="C77" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="B78" t="s">
         <v>153</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>154</v>
       </c>
-      <c r="C78" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="B79" t="s">
         <v>155</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>156</v>
       </c>
-      <c r="C79" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="B80" t="s">
         <v>157</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>158</v>
       </c>
-      <c r="C80" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="B81" t="s">
         <v>159</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>160</v>
       </c>
-      <c r="C81" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="B82" t="s">
         <v>161</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>162</v>
       </c>
-      <c r="C82" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="B83" t="s">
         <v>163</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>164</v>
       </c>
-      <c r="C83" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="B84" t="s">
         <v>165</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>166</v>
       </c>
-      <c r="C84" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="B85" t="s">
         <v>167</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>168</v>
       </c>
-      <c r="C85" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="B86" t="s">
         <v>169</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>170</v>
       </c>
-      <c r="C86" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="B87" t="s">
         <v>171</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>172</v>
       </c>
-      <c r="C87" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="B88" t="s">
         <v>173</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>174</v>
       </c>
-      <c r="C88" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="B89" t="s">
         <v>175</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>176</v>
       </c>
-      <c r="C89" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="B90" t="s">
         <v>177</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>178</v>
       </c>
-      <c r="C90" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="B91" t="s">
         <v>179</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>180</v>
       </c>
-      <c r="C91" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="B92" t="s">
         <v>181</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>182</v>
       </c>
-      <c r="C92" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="B93" t="s">
         <v>183</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>184</v>
       </c>
-      <c r="C93" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="B94" t="s">
         <v>185</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>186</v>
       </c>
-      <c r="C94" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="B95" t="s">
         <v>187</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>188</v>
       </c>
-      <c r="C95" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="B96" t="s">
+        <v>187</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>189</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" t="s">
         <v>190</v>
       </c>
-      <c r="C96" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>191</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" t="s">
         <v>192</v>
       </c>
-      <c r="C97" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>193</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B99" t="s">
         <v>194</v>
       </c>
-      <c r="C98" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>195</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" t="s">
         <v>196</v>
       </c>
-      <c r="C99" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>197</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" t="s">
         <v>198</v>
       </c>
-      <c r="C100" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>199</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>200</v>
       </c>
-      <c r="C101" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="B103" t="s">
         <v>201</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C102" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>202</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B104" t="s">
         <v>203</v>
       </c>
-      <c r="C103" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>204</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B105" t="s">
         <v>205</v>
       </c>
-      <c r="C104" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>206</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B106" t="s">
         <v>207</v>
       </c>
-      <c r="C105" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>208</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B107" t="s">
         <v>209</v>
       </c>
-      <c r="C106" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>210</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B108" t="s">
         <v>211</v>
       </c>
-      <c r="C107" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>212</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C108" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="B109" t="s">
         <v>213</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>214</v>
       </c>
-      <c r="C109" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="B110" t="s">
         <v>215</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>216</v>
       </c>
-      <c r="C110" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="B111" t="s">
         <v>217</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>218</v>
       </c>
-      <c r="C111" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="B112" t="s">
+        <v>217</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>219</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B113" t="s">
         <v>220</v>
       </c>
-      <c r="C112" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>221</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B114" t="s">
+        <v>220</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>222</v>
       </c>
-      <c r="C113" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="B115" t="s">
         <v>223</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>224</v>
       </c>
-      <c r="C114" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="B116" t="s">
         <v>225</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>226</v>
       </c>
-      <c r="C115" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="B117" t="s">
         <v>227</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>228</v>
       </c>
-      <c r="C116" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="B118" t="s">
         <v>229</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>230</v>
       </c>
-      <c r="C117" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="B119" t="s">
+        <v>229</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>231</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C118" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+      <c r="B120" t="s">
         <v>232</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>233</v>
       </c>
-      <c r="C119" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="B121" t="s">
         <v>234</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C120" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>235</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B122" t="s">
         <v>236</v>
       </c>
-      <c r="C121" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="C122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>237</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B123" t="s">
         <v>238</v>
       </c>
-      <c r="C122" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>239</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B124" t="s">
         <v>240</v>
       </c>
-      <c r="C123" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>241</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B125" t="s">
         <v>242</v>
       </c>
-      <c r="C124" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>243</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C125" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+      <c r="B126" t="s">
+        <v>395</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>244</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B127" t="s">
         <v>245</v>
       </c>
-      <c r="C126" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>246</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B128" t="s">
+        <v>245</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>247</v>
       </c>
-      <c r="C127" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="B129" t="s">
         <v>248</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>249</v>
       </c>
-      <c r="C128" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="B130" t="s">
         <v>250</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="C130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>251</v>
       </c>
-      <c r="C129" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="B131" t="s">
         <v>252</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>253</v>
       </c>
-      <c r="C130" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="B132" t="s">
         <v>254</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>255</v>
       </c>
-      <c r="C131" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="B133" t="s">
         <v>256</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>257</v>
       </c>
-      <c r="C132" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+      <c r="B134" t="s">
         <v>258</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>259</v>
       </c>
-      <c r="C133" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="B135" t="s">
         <v>260</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="C135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>261</v>
       </c>
-      <c r="C134" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="B136" t="s">
         <v>262</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>263</v>
       </c>
-      <c r="C135" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="B137" t="s">
         <v>264</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C136" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>265</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B138" t="s">
         <v>266</v>
       </c>
-      <c r="C137" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>267</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B139" t="s">
         <v>268</v>
       </c>
-      <c r="C138" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+      <c r="C139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>269</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C139" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+      <c r="B140" t="s">
+        <v>125</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>270</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B141" t="s">
+        <v>127</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>271</v>
       </c>
-      <c r="C140" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+      <c r="B142" t="s">
         <v>272</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="C142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>273</v>
       </c>
-      <c r="C141" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+      <c r="B143" t="s">
         <v>274</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="C143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>275</v>
       </c>
-      <c r="C142" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+      <c r="B144" t="s">
         <v>276</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="C144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>277</v>
       </c>
-      <c r="C143" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="B145" t="s">
         <v>278</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="C145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>279</v>
       </c>
-      <c r="C144" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+      <c r="B146" t="s">
         <v>280</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="C146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>281</v>
       </c>
-      <c r="C145" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+      <c r="B147" t="s">
         <v>282</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>283</v>
       </c>
-      <c r="C146" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+      <c r="B148" t="s">
         <v>284</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="C148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>285</v>
       </c>
-      <c r="C147" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="B149" t="s">
         <v>286</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="C149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>287</v>
       </c>
-      <c r="C148" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+      <c r="B150" t="s">
         <v>288</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="C150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>289</v>
       </c>
-      <c r="C149" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="B151" t="s">
         <v>290</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>291</v>
       </c>
-      <c r="C150" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+      <c r="B152" t="s">
         <v>292</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C151" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+      <c r="C152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>293</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C152" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+      <c r="B153" t="s">
         <v>294</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="C153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>295</v>
       </c>
-      <c r="C153" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+      <c r="B154" t="s">
         <v>296</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="C154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>297</v>
       </c>
-      <c r="C154" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+      <c r="B155" t="s">
         <v>298</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="C155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>299</v>
       </c>
-      <c r="C155" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+      <c r="B156" t="s">
         <v>300</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="C156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>301</v>
       </c>
-      <c r="C156" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+      <c r="B157" t="s">
         <v>302</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="C157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>303</v>
       </c>
-      <c r="C157" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+      <c r="B158" t="s">
         <v>304</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="C158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>305</v>
       </c>
-      <c r="C158" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+      <c r="B159" t="s">
         <v>306</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="C159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>307</v>
       </c>
-      <c r="C159" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+      <c r="B160" t="s">
         <v>308</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="C160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>309</v>
       </c>
-      <c r="C160" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
+      <c r="B161" t="s">
         <v>310</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="C161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>311</v>
       </c>
-      <c r="C161" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+      <c r="B162" t="s">
         <v>312</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="C162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>313</v>
       </c>
-      <c r="C162" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+      <c r="B163" t="s">
         <v>314</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>315</v>
       </c>
-      <c r="C163" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+      <c r="B164" t="s">
         <v>316</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="C164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>317</v>
       </c>
-      <c r="C164" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+      <c r="B165" t="s">
         <v>318</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="C165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>319</v>
       </c>
-      <c r="C165" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+      <c r="B166" t="s">
         <v>320</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="C166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>321</v>
       </c>
-      <c r="C166" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
+      <c r="B167" t="s">
         <v>322</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>323</v>
       </c>
-      <c r="C167" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
+      <c r="B168" t="s">
         <v>324</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="C168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>325</v>
       </c>
-      <c r="C168" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
+      <c r="B169" t="s">
         <v>326</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="C169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
         <v>327</v>
       </c>
-      <c r="C169" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
+      <c r="B170" t="s">
         <v>328</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="C170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>329</v>
       </c>
-      <c r="C170" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+      <c r="B171" t="s">
         <v>330</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="C171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>331</v>
       </c>
-      <c r="C171" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+      <c r="B172" t="s">
         <v>332</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="C172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>333</v>
       </c>
-      <c r="C172" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
+      <c r="B173" t="s">
         <v>334</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="C173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>335</v>
       </c>
-      <c r="C173" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
+      <c r="B174" t="s">
         <v>336</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="C174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>337</v>
       </c>
-      <c r="C174" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
+      <c r="B175" t="s">
         <v>338</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="C175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>339</v>
       </c>
-      <c r="C175" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
+      <c r="B176" t="s">
         <v>340</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="C176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>341</v>
       </c>
-      <c r="C176" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
+      <c r="B177" t="s">
         <v>342</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="C177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>343</v>
       </c>
-      <c r="C177" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
+      <c r="B178" t="s">
         <v>344</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="C178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>345</v>
       </c>
-      <c r="C178" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
+      <c r="B179" t="s">
         <v>346</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="C179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>347</v>
       </c>
-      <c r="C179" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
+      <c r="B180" t="s">
         <v>348</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="C180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>349</v>
       </c>
-      <c r="C180" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
+      <c r="B181" t="s">
         <v>350</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="C181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>351</v>
       </c>
-      <c r="C181" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
+      <c r="B182" t="s">
+        <v>350</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>352</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B183" t="s">
+        <v>350</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>353</v>
       </c>
-      <c r="C182" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
+      <c r="B184" t="s">
         <v>354</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="C184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
         <v>355</v>
       </c>
-      <c r="C183" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
+      <c r="B185" t="s">
         <v>356</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="C185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
         <v>357</v>
       </c>
-      <c r="C184" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
+      <c r="B186" t="s">
         <v>358</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="C186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>359</v>
       </c>
-      <c r="C185" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
+      <c r="B187" t="s">
         <v>360</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="C187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
         <v>361</v>
       </c>
-      <c r="C186" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
+      <c r="B188" t="s">
+        <v>360</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
         <v>362</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B189" t="s">
         <v>363</v>
       </c>
-      <c r="C187" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
+      <c r="C189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
         <v>364</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B190" t="s">
         <v>365</v>
       </c>
-      <c r="C188" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
+      <c r="C190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
         <v>366</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B191" t="s">
         <v>367</v>
       </c>
-      <c r="C189" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
+      <c r="C191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
         <v>368</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B192" t="s">
         <v>369</v>
       </c>
-      <c r="C190" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
+      <c r="C192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
         <v>370</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B193" t="s">
         <v>371</v>
       </c>
-      <c r="C191" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
+      <c r="C193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
         <v>372</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B194" t="s">
+        <v>371</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
         <v>373</v>
       </c>
-      <c r="C192" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
+      <c r="B195" t="s">
+        <v>371</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
         <v>374</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C193" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
+      <c r="B196" t="s">
+        <v>371</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
         <v>375</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C194" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
+      <c r="B197" t="s">
         <v>376</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="C197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
         <v>377</v>
       </c>
-      <c r="C195" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
+      <c r="B198" t="s">
         <v>378</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="C198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
         <v>379</v>
       </c>
-      <c r="C196" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
+      <c r="B199" t="s">
         <v>380</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="C199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
         <v>381</v>
       </c>
-      <c r="C197" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
+      <c r="B200" t="s">
         <v>382</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="C200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
         <v>383</v>
       </c>
-      <c r="C198" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
+      <c r="B201" t="s">
         <v>384</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C199" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
+      <c r="C201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
         <v>385</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B202" t="s">
         <v>386</v>
       </c>
-      <c r="C200" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
+      <c r="C202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
         <v>387</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B203" t="s">
         <v>388</v>
       </c>
-      <c r="C201" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
+      <c r="C203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
         <v>389</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B204" t="s">
         <v>390</v>
       </c>
-      <c r="C202" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
+      <c r="C204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
         <v>391</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B205" t="s">
         <v>392</v>
       </c>
-      <c r="C203" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
+      <c r="C205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
         <v>393</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B206" t="s">
         <v>394</v>
       </c>
-      <c r="C204" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C205" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C206" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C207" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C208" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C209" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C210" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C211" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C212" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C213" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C214" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C215" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C216" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C217" s="1">
+      <c r="C206">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{6D8E9AF1-4AC8-4155-A90E-2D1A2E1E696A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PlanCuentas.xlsx
+++ b/PlanCuentas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Visual\Proyecto_Roberto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95302781-3489-4382-8076-02CFCA191BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD526563-7102-4DD4-8FFE-266DB8E75E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A3F66D12-4FCB-48B9-8EDE-634F8DB9845A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$206</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1581,10 +1581,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8E9AF1-4AC8-4155-A90E-2D1A2E1E696A}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1604,7 +1605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1615,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1626,7 +1627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1637,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1648,7 +1649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1659,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1670,7 +1671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1681,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1692,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1703,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1714,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1758,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1769,7 +1770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1780,7 +1781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1802,7 +1803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1813,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1824,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1835,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1846,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -1857,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -1868,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -1879,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -1912,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -1923,7 +1924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -1934,7 +1935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -1945,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -1956,7 +1957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -1967,7 +1968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -1978,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -1989,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -2000,7 +2001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -2011,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -2022,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -2033,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -2044,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -2055,7 +2056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -2066,7 +2067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -2077,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -2088,7 +2089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -2099,7 +2100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -2110,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -2121,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -2132,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>98</v>
       </c>
@@ -2143,7 +2144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -2154,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -2165,7 +2166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>103</v>
       </c>
@@ -2176,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>104</v>
       </c>
@@ -2187,7 +2188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -2198,7 +2199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -2209,7 +2210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -2220,7 +2221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -2231,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>114</v>
       </c>
@@ -2242,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -2253,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -2264,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -2275,7 +2276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>122</v>
       </c>
@@ -2286,7 +2287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>124</v>
       </c>
@@ -2297,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>126</v>
       </c>
@@ -2308,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>128</v>
       </c>
@@ -2319,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>130</v>
       </c>
@@ -2330,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>132</v>
       </c>
@@ -2341,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>134</v>
       </c>
@@ -2352,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>136</v>
       </c>
@@ -2363,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>138</v>
       </c>
@@ -2374,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>140</v>
       </c>
@@ -2385,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>142</v>
       </c>
@@ -2396,7 +2397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>144</v>
       </c>
@@ -2407,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>146</v>
       </c>
@@ -2418,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>148</v>
       </c>
@@ -2429,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>150</v>
       </c>
@@ -2440,7 +2441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>152</v>
       </c>
@@ -2451,7 +2452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>154</v>
       </c>
@@ -2462,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>156</v>
       </c>
@@ -2473,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>158</v>
       </c>
@@ -2484,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>160</v>
       </c>
@@ -2495,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>162</v>
       </c>
@@ -2506,7 +2507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>164</v>
       </c>
@@ -2517,7 +2518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>166</v>
       </c>
@@ -2528,7 +2529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>168</v>
       </c>
@@ -2539,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>170</v>
       </c>
@@ -2550,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>172</v>
       </c>
@@ -2561,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>174</v>
       </c>
@@ -2572,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>176</v>
       </c>
@@ -2583,7 +2584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>178</v>
       </c>
@@ -2594,7 +2595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>180</v>
       </c>
@@ -2605,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>182</v>
       </c>
@@ -2616,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>184</v>
       </c>
@@ -2627,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>186</v>
       </c>
@@ -2638,7 +2639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>188</v>
       </c>
@@ -2649,7 +2650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>189</v>
       </c>
@@ -2660,7 +2661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>191</v>
       </c>
@@ -2671,7 +2672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>193</v>
       </c>
@@ -2682,7 +2683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>195</v>
       </c>
@@ -2693,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>197</v>
       </c>
@@ -2704,7 +2705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>199</v>
       </c>
@@ -2715,7 +2716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>200</v>
       </c>
@@ -2726,7 +2727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>202</v>
       </c>
@@ -2737,7 +2738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>204</v>
       </c>
@@ -2748,7 +2749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>206</v>
       </c>
@@ -2759,7 +2760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>208</v>
       </c>
@@ -2770,7 +2771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>210</v>
       </c>
@@ -2781,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>212</v>
       </c>
@@ -2792,7 +2793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>214</v>
       </c>
@@ -2803,7 +2804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>216</v>
       </c>
@@ -2814,7 +2815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>218</v>
       </c>
@@ -2825,7 +2826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>219</v>
       </c>
@@ -2836,7 +2837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>221</v>
       </c>
@@ -2847,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>222</v>
       </c>
@@ -2858,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>224</v>
       </c>
@@ -2869,7 +2870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>226</v>
       </c>
@@ -2880,7 +2881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>228</v>
       </c>
@@ -2891,7 +2892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>230</v>
       </c>
@@ -2902,7 +2903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>231</v>
       </c>
@@ -2913,7 +2914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>233</v>
       </c>
@@ -2924,7 +2925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>235</v>
       </c>
@@ -2935,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>237</v>
       </c>
@@ -2946,7 +2947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>239</v>
       </c>
@@ -2957,7 +2958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>241</v>
       </c>
@@ -2968,7 +2969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>243</v>
       </c>
@@ -2979,7 +2980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>244</v>
       </c>
@@ -2990,7 +2991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>246</v>
       </c>
@@ -3001,7 +3002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>247</v>
       </c>
@@ -3012,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>249</v>
       </c>
@@ -3023,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>251</v>
       </c>
@@ -3034,7 +3035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>253</v>
       </c>
@@ -3045,7 +3046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>255</v>
       </c>
@@ -3056,7 +3057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>257</v>
       </c>
@@ -3067,7 +3068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>259</v>
       </c>
@@ -3078,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>261</v>
       </c>
@@ -3089,7 +3090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>263</v>
       </c>
@@ -3100,7 +3101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>265</v>
       </c>
@@ -3111,7 +3112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>267</v>
       </c>
@@ -3122,7 +3123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>269</v>
       </c>
@@ -3133,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>270</v>
       </c>
@@ -3144,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>271</v>
       </c>
@@ -3155,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>273</v>
       </c>
@@ -3166,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>275</v>
       </c>
@@ -3177,7 +3178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>277</v>
       </c>
@@ -3188,7 +3189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>279</v>
       </c>
@@ -3199,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>281</v>
       </c>
@@ -3210,7 +3211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>283</v>
       </c>
@@ -3221,7 +3222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>285</v>
       </c>
@@ -3232,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>287</v>
       </c>
@@ -3243,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>289</v>
       </c>
@@ -3254,7 +3255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>291</v>
       </c>
@@ -3265,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>293</v>
       </c>
@@ -3276,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>295</v>
       </c>
@@ -3287,7 +3288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>297</v>
       </c>
@@ -3298,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>299</v>
       </c>
@@ -3309,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>301</v>
       </c>
@@ -3320,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>303</v>
       </c>
@@ -3331,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>305</v>
       </c>
@@ -3342,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>307</v>
       </c>
@@ -3353,7 +3354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>309</v>
       </c>
@@ -3364,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>311</v>
       </c>
@@ -3375,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>313</v>
       </c>
@@ -3386,7 +3387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>315</v>
       </c>
@@ -3397,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>317</v>
       </c>
@@ -3408,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>319</v>
       </c>
@@ -3419,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>321</v>
       </c>
@@ -3430,7 +3431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>323</v>
       </c>
@@ -3441,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>325</v>
       </c>
@@ -3452,7 +3453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>327</v>
       </c>
@@ -3463,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>329</v>
       </c>
@@ -3474,7 +3475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>331</v>
       </c>
@@ -3485,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>333</v>
       </c>
@@ -3496,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>335</v>
       </c>
@@ -3507,7 +3508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>337</v>
       </c>
@@ -3518,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>339</v>
       </c>
@@ -3529,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>341</v>
       </c>
@@ -3540,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>343</v>
       </c>
@@ -3551,7 +3552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>345</v>
       </c>
@@ -3562,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>347</v>
       </c>
@@ -3573,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>349</v>
       </c>
@@ -3584,7 +3585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>351</v>
       </c>
@@ -3595,7 +3596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>352</v>
       </c>
@@ -3606,7 +3607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>353</v>
       </c>
@@ -3617,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>355</v>
       </c>
@@ -3628,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>357</v>
       </c>
@@ -3639,7 +3640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>359</v>
       </c>
@@ -3650,7 +3651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>361</v>
       </c>
@@ -3661,7 +3662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>362</v>
       </c>
@@ -3672,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>364</v>
       </c>
@@ -3683,7 +3684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>366</v>
       </c>
@@ -3694,7 +3695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>368</v>
       </c>
@@ -3705,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>370</v>
       </c>
@@ -3716,7 +3717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>372</v>
       </c>
@@ -3727,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>373</v>
       </c>
@@ -3738,7 +3739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>374</v>
       </c>
@@ -3749,7 +3750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>375</v>
       </c>
@@ -3760,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>377</v>
       </c>
@@ -3771,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>379</v>
       </c>
@@ -3782,7 +3783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>381</v>
       </c>
@@ -3793,7 +3794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>383</v>
       </c>
@@ -3804,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>385</v>
       </c>
@@ -3815,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>387</v>
       </c>
@@ -3826,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>389</v>
       </c>
@@ -3837,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>391</v>
       </c>
@@ -3848,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>393</v>
       </c>
@@ -3860,7 +3861,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{6D8E9AF1-4AC8-4155-A90E-2D1A2E1E696A}"/>
+  <autoFilter ref="A1:C206" xr:uid="{6D8E9AF1-4AC8-4155-A90E-2D1A2E1E696A}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="CTAS POR COBRAR"/>
+        <filter val="Ctas.por Cobrar Clientes"/>
+        <filter val="CTAS.POR COBRAR EMPLEADOS"/>
+        <filter val="CUENTAS POR COBRAR IMPUESTOS"/>
+        <filter val="OTRAS CUENTAS POR COBRAR"/>
+        <filter val="Otras cuentas por cobrar (Alm)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>